--- a/NewFormatMasterPrL2.xlsx
+++ b/NewFormatMasterPrL2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korne\PycharmProjects\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970A1FF2-3E05-4E06-B97C-C0AB35817445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA886373-F6DB-4D6C-B1C9-FA26DE77B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D17BE42-3F45-4451-B22E-477E702760AC}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="OG" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$233</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="221">
   <si>
     <t>Gantt</t>
   </si>
@@ -625,9 +625,6 @@
     <t>000011111111111111110</t>
   </si>
   <si>
-    <t>000111111111111111110</t>
-  </si>
-  <si>
     <t>000000011111111111110</t>
   </si>
   <si>
@@ -716,13 +713,25 @@
   </si>
   <si>
     <t>Progress_on_1qGantt8</t>
+  </si>
+  <si>
+    <t>000000000011111111110</t>
+  </si>
+  <si>
+    <t>000111111111111111000</t>
+  </si>
+  <si>
+    <t>000011111111111111100</t>
+  </si>
+  <si>
+    <t>000001111111111111100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +830,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1031,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1186,6 +1203,19 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1508,10 +1538,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E08F9-F7C9-4E71-AA19-9FDE065D06ED}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E234" sqref="E234"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,7 +1589,7 @@
         <v>Array_1Gantt</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1577,7 +1607,7 @@
         <v>Array_2Gantt</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1595,7 +1625,7 @@
         <v>Array_3Gantt</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1649,7 +1679,7 @@
         <v>Array_6Gantt</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2151,7 +2181,7 @@
         <v>Issue5Gantt</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>33</v>
@@ -2173,7 +2203,7 @@
         <v>Issue5Gantt</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>29</v>
@@ -3399,7 +3429,7 @@
         <v>6</v>
       </c>
       <c r="E87" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F87" s="4">
         <v>1</v>
@@ -3423,7 +3453,7 @@
         <v>6</v>
       </c>
       <c r="E88" s="4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F88" s="4">
         <v>2</v>
@@ -3447,7 +3477,7 @@
         <v>6</v>
       </c>
       <c r="E89" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F89" s="4">
         <v>3</v>
@@ -3471,7 +3501,7 @@
         <v>6</v>
       </c>
       <c r="E90" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F90" s="4">
         <v>4</v>
@@ -3495,7 +3525,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F91" s="4">
         <v>5</v>
@@ -3504,26 +3534,23 @@
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="57" t="s">
+    <row r="92" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="B92" s="57" t="s">
+      <c r="B92" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="56" t="str">
+      <c r="C92" s="69" t="str">
         <f t="shared" ref="C92:C97" si="3">B92&amp;""&amp;A92</f>
         <v>Amount_of_issuesGantt6</v>
       </c>
-      <c r="D92" s="58">
-        <f>COUNTA(D93:D97)</f>
-        <v>5</v>
-      </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="67">
+        <v>7</v>
+      </c>
+      <c r="G92" s="68"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>177</v>
       </c>
@@ -3538,7 +3565,7 @@
         <v>6</v>
       </c>
       <c r="E93" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -3547,7 +3574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>177</v>
       </c>
@@ -3562,7 +3589,7 @@
         <v>6</v>
       </c>
       <c r="E94" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F94" s="4">
         <v>2</v>
@@ -3571,7 +3598,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>177</v>
       </c>
@@ -3586,7 +3613,7 @@
         <v>6</v>
       </c>
       <c r="E95" s="4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F95" s="4">
         <v>3</v>
@@ -3595,7 +3622,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>177</v>
       </c>
@@ -3610,7 +3637,7 @@
         <v>6</v>
       </c>
       <c r="E96" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F96" s="4">
         <v>4</v>
@@ -3619,7 +3646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>177</v>
       </c>
@@ -3634,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="E97" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F97" s="4">
         <v>5</v>
@@ -3785,14 +3812,14 @@
         <v>63</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C109" s="56" t="str">
         <f t="shared" si="2"/>
         <v>Quarter8All</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -4320,7 +4347,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>177</v>
       </c>
@@ -4335,7 +4362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>177</v>
       </c>
@@ -4350,7 +4377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>177</v>
       </c>
@@ -4365,7 +4392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>177</v>
       </c>
@@ -4380,7 +4407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>177</v>
       </c>
@@ -4395,7 +4422,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>177</v>
       </c>
@@ -4410,7 +4437,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>177</v>
       </c>
@@ -4430,14 +4457,14 @@
         <v>0</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C152" s="56" t="str">
         <f t="shared" si="6"/>
         <v>Array_7Gantt</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4445,14 +4472,14 @@
         <v>0</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C153" s="56" t="str">
         <f t="shared" si="6"/>
         <v>Array_8Gantt</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4460,14 +4487,14 @@
         <v>0</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C154" s="56" t="str">
         <f t="shared" si="6"/>
         <v>Array_9Gantt</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4475,19 +4502,19 @@
         <v>0</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C155" s="56" t="str">
         <f t="shared" si="6"/>
         <v>Array_10Gantt</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>77</v>
@@ -4502,7 +4529,7 @@
     </row>
     <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>78</v>
@@ -4517,7 +4544,7 @@
     </row>
     <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>79</v>
@@ -4532,7 +4559,7 @@
     </row>
     <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>80</v>
@@ -4547,7 +4574,7 @@
     </row>
     <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>81</v>
@@ -4562,7 +4589,7 @@
     </row>
     <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>168</v>
@@ -4577,7 +4604,7 @@
     </row>
     <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>169</v>
@@ -4592,13 +4619,13 @@
     </row>
     <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C163" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D163" s="1">
         <v>10</v>
@@ -4606,13 +4633,13 @@
     </row>
     <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C164" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D164" s="1">
         <v>10</v>
@@ -4620,13 +4647,13 @@
     </row>
     <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C165" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D165" s="1">
         <v>40</v>
@@ -4634,13 +4661,13 @@
     </row>
     <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C166" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D166" s="1">
         <v>50</v>
@@ -4648,13 +4675,13 @@
     </row>
     <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C167" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D167" s="1">
         <v>80</v>
@@ -4662,13 +4689,13 @@
     </row>
     <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C168" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D168" s="1">
         <v>80</v>
@@ -4676,13 +4703,13 @@
     </row>
     <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>169</v>
       </c>
       <c r="C169" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D169" s="1">
         <v>100</v>
@@ -4693,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C170" s="56" t="str">
         <f t="shared" ref="C170:C173" si="8">B170&amp;""&amp;A170</f>
@@ -4714,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C171" s="56" t="str">
         <f t="shared" si="8"/>
@@ -4735,14 +4762,14 @@
         <v>0</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C172" s="56" t="str">
         <f t="shared" si="8"/>
         <v>Issue7Gantt</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>33</v>
@@ -4756,14 +4783,14 @@
         <v>0</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C173" s="56" t="str">
         <f t="shared" si="8"/>
         <v>Issue7Gantt</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E173" s="8" t="s">
         <v>29</v>
@@ -4785,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C175" s="56" t="str">
         <f t="shared" ref="C175:C184" si="9">B175&amp;""&amp;A174</f>
@@ -4806,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C176" s="56" t="str">
         <f t="shared" si="9"/>
@@ -4827,14 +4854,14 @@
         <v>0</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C177" s="56" t="str">
         <f t="shared" si="9"/>
         <v>Issue8Gantt</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>33</v>
@@ -4848,14 +4875,14 @@
         <v>0</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C178" s="56" t="str">
         <f t="shared" si="9"/>
         <v>Issue8Gantt</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>29</v>
@@ -4869,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C179" s="56" t="str">
         <f t="shared" si="9"/>
@@ -4890,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C180" s="56" t="str">
         <f t="shared" si="9"/>
@@ -4911,14 +4938,14 @@
         <v>0</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C181" s="56" t="str">
         <f t="shared" si="9"/>
         <v>Issue9Gantt</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>33</v>
@@ -4932,14 +4959,14 @@
         <v>0</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C182" s="56" t="str">
         <f t="shared" si="9"/>
         <v>Issue9Gantt</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>29</v>
@@ -4953,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C183" s="56" t="str">
         <f t="shared" si="9"/>
@@ -4974,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C184" s="56" t="str">
         <f t="shared" si="9"/>
@@ -4995,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C185" s="56" t="str">
         <f t="shared" ref="C185" si="10">B185&amp;""&amp;A184</f>
@@ -5016,14 +5043,14 @@
         <v>0</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C186" s="56" t="str">
         <f>B186&amp;""&amp;A184</f>
         <v>Issue10Gantt</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>33</v>
@@ -5032,9 +5059,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>77</v>
@@ -5047,9 +5074,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>78</v>
@@ -5062,9 +5089,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>79</v>
@@ -5077,9 +5104,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>80</v>
@@ -5092,9 +5119,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>81</v>
@@ -5107,9 +5134,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>168</v>
@@ -5124,7 +5151,7 @@
     </row>
     <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>169</v>
@@ -5139,7 +5166,7 @@
     </row>
     <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>77</v>
@@ -5154,7 +5181,7 @@
     </row>
     <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>78</v>
@@ -5169,7 +5196,7 @@
     </row>
     <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B196" s="10" t="s">
         <v>79</v>
@@ -5184,7 +5211,7 @@
     </row>
     <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>80</v>
@@ -5199,7 +5226,7 @@
     </row>
     <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>81</v>
@@ -5214,7 +5241,7 @@
     </row>
     <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>168</v>
@@ -5229,7 +5256,7 @@
     </row>
     <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>169</v>
@@ -5244,7 +5271,7 @@
     </row>
     <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>41</v>
@@ -5268,7 +5295,7 @@
     </row>
     <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>42</v>
@@ -5292,7 +5319,7 @@
     </row>
     <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>43</v>
@@ -5316,7 +5343,7 @@
     </row>
     <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B204" s="10" t="s">
         <v>44</v>
@@ -5340,7 +5367,7 @@
     </row>
     <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B205" s="10" t="s">
         <v>45</v>
@@ -5364,7 +5391,7 @@
     </row>
     <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B206" s="10" t="s">
         <v>41</v>
@@ -5388,7 +5415,7 @@
     </row>
     <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>42</v>
@@ -5412,7 +5439,7 @@
     </row>
     <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B208" s="10" t="s">
         <v>43</v>
@@ -5436,7 +5463,7 @@
     </row>
     <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>44</v>
@@ -5458,9 +5485,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B210" s="10" t="s">
         <v>45</v>
@@ -5482,9 +5509,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B211" s="10" t="s">
         <v>41</v>
@@ -5506,9 +5533,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B212" s="10" t="s">
         <v>42</v>
@@ -5530,9 +5557,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>43</v>
@@ -5554,9 +5581,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B214" s="10" t="s">
         <v>44</v>
@@ -5580,7 +5607,7 @@
     </row>
     <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B215" s="10" t="s">
         <v>41</v>
@@ -5604,7 +5631,7 @@
     </row>
     <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>42</v>
@@ -5628,7 +5655,7 @@
     </row>
     <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>43</v>
@@ -5652,7 +5679,7 @@
     </row>
     <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B218" s="10" t="s">
         <v>44</v>
@@ -5703,20 +5730,20 @@
         <v>0</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C220" s="56" t="str">
         <f t="shared" si="12"/>
         <v>Name_perc_Team_7Gantt</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E220" s="10">
         <v>31</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -5724,20 +5751,20 @@
         <v>0</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C221" s="56" t="str">
         <f t="shared" si="12"/>
         <v>Name_perc_Team_8Gantt</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E221" s="10">
         <v>43</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -5745,20 +5772,20 @@
         <v>0</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C222" s="56" t="str">
         <f t="shared" si="12"/>
         <v>Name_perc_Team_9Gantt</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E222" s="10">
         <v>21</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -5766,41 +5793,41 @@
         <v>0</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C223" s="56" t="str">
         <f t="shared" si="12"/>
         <v>Name_perc_Team_10Gantt</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E223" s="10">
         <v>56</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B224" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="B224" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C224" s="56" t="str">
+      <c r="C224" s="66" t="str">
         <f>B224&amp;""&amp;A224</f>
         <v>Amount_of_issuesGantt10</v>
       </c>
-      <c r="D224" s="58">
-        <f>COUNTA(D215:D219)</f>
-        <v>5</v>
-      </c>
+      <c r="D224" s="67">
+        <v>7</v>
+      </c>
+      <c r="E224" s="65"/>
     </row>
     <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B225" s="10" t="s">
         <v>40</v>
@@ -5814,9 +5841,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B226" s="57" t="s">
         <v>40</v>
@@ -5831,7 +5858,7 @@
     </row>
     <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B227" s="57" t="s">
         <v>40</v>
@@ -5846,7 +5873,7 @@
     </row>
     <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B228" s="10" t="s">
         <v>45</v>
@@ -5859,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="E228" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F228" s="12">
         <v>1</v>
@@ -5868,9 +5895,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B229" s="10" t="s">
         <v>169</v>
@@ -5883,11 +5910,107 @@
         <v>100</v>
       </c>
     </row>
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C230" s="56" t="str">
+        <f>B230&amp;""&amp;A216</f>
+        <v>Issue_6Gantt10</v>
+      </c>
+      <c r="D230" s="4">
+        <v>1</v>
+      </c>
+      <c r="E230" s="4">
+        <v>7</v>
+      </c>
+      <c r="F230" s="12">
+        <v>1</v>
+      </c>
+      <c r="G230" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C231" s="56" t="str">
+        <f>B231&amp;""&amp;A217</f>
+        <v>Issue_7Gantt10</v>
+      </c>
+      <c r="D231" s="4">
+        <v>1</v>
+      </c>
+      <c r="E231" s="4">
+        <v>8</v>
+      </c>
+      <c r="F231" s="12">
+        <v>1</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C232" s="56" t="str">
+        <f t="shared" ref="C232:C233" si="15">B232&amp;""&amp;A232</f>
+        <v>Issue_6Gantt6</v>
+      </c>
+      <c r="D232" s="4">
+        <v>6</v>
+      </c>
+      <c r="E232" s="4">
+        <v>9</v>
+      </c>
+      <c r="F232" s="4">
+        <v>4</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233" s="56" t="str">
+        <f t="shared" si="15"/>
+        <v>Issue_7Gantt6</v>
+      </c>
+      <c r="D233" s="4">
+        <v>6</v>
+      </c>
+      <c r="E233" s="4">
+        <v>10</v>
+      </c>
+      <c r="F233" s="4">
+        <v>5</v>
+      </c>
+      <c r="G233" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F229" xr:uid="{C90E08F9-F7C9-4E71-AA19-9FDE065D06ED}">
+  <autoFilter ref="A1:F233" xr:uid="{C90E08F9-F7C9-4E71-AA19-9FDE065D06ED}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Gantt9"/>
+        <filter val="Gantt6"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:F15">

--- a/NewFormatMasterPrL2.xlsx
+++ b/NewFormatMasterPrL2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korne\PycharmProjects\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA886373-F6DB-4D6C-B1C9-FA26DE77B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208A3045-6A00-4120-89A9-39FFCE91C076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D17BE42-3F45-4451-B22E-477E702760AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4D17BE42-3F45-4451-B22E-477E702760AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -532,9 +532,6 @@
     <t>2is5</t>
   </si>
   <si>
-    <t>name2</t>
-  </si>
-  <si>
     <t>Фризирование</t>
   </si>
   <si>
@@ -725,6 +722,9 @@
   </si>
   <si>
     <t>000001111111111111100</t>
+  </si>
+  <si>
+    <t>= ЕСЛИ(СМЕЩ(!OGB8;-1;0)=0;name;issue)'</t>
   </si>
 </sst>
 </file>
@@ -1192,6 +1192,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1204,19 +1213,10 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1540,7 +1540,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
@@ -1582,14 +1582,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="56" t="str">
         <f t="shared" ref="C2:C53" si="0">B2&amp;""&amp;A2</f>
         <v>Array_1Gantt</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1600,14 +1600,14 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="56" t="str">
         <f t="shared" si="0"/>
         <v>Array_2Gantt</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1618,14 +1618,14 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="56" t="str">
         <f t="shared" si="0"/>
         <v>Array_3Gantt</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1636,14 +1636,14 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="56" t="str">
         <f t="shared" si="0"/>
         <v>Array_4Gantt</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1654,14 +1654,14 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="56" t="str">
         <f t="shared" si="0"/>
         <v>Array_5Gantt</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1672,14 +1672,14 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="56" t="str">
         <f t="shared" si="0"/>
         <v>Array_6Gantt</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" s="56" t="str">
         <f t="shared" ref="C24:C27" si="1">B24&amp;""&amp;A24</f>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" s="56" t="str">
         <f t="shared" si="1"/>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="56" t="str">
         <f t="shared" si="1"/>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C27" s="56" t="str">
         <f t="shared" si="1"/>
@@ -2181,7 +2181,7 @@
         <v>Issue5Gantt</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>33</v>
@@ -2203,7 +2203,7 @@
         <v>Issue5Gantt</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>29</v>
@@ -2311,13 +2311,13 @@
         <v>Name_perc_Team_5Gantt</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E36" s="10">
         <v>21</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -2325,20 +2325,20 @@
         <v>0</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C37" s="56" t="str">
         <f t="shared" si="0"/>
         <v>Name_perc_Team_6Gantt</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E37" s="10">
         <v>56</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -3534,25 +3534,25 @@
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="B92" s="65" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="69" t="str">
+      <c r="C92" s="63" t="str">
         <f t="shared" ref="C92:C97" si="3">B92&amp;""&amp;A92</f>
         <v>Amount_of_issuesGantt6</v>
       </c>
-      <c r="D92" s="67">
+      <c r="D92" s="1">
         <v>7</v>
       </c>
-      <c r="G92" s="68"/>
+      <c r="G92" s="62"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>41</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>42</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>43</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>44</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="97" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>45</v>
@@ -3812,14 +3812,14 @@
         <v>63</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C109" s="56" t="str">
         <f t="shared" si="2"/>
         <v>Quarter8All</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -4202,7 +4202,7 @@
         <v>39</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C135" s="56" t="str">
         <f t="shared" si="5"/>
@@ -4217,7 +4217,7 @@
         <v>39</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C136" s="56" t="str">
         <f t="shared" si="5"/>
@@ -4232,7 +4232,7 @@
         <v>52</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C137" s="56" t="str">
         <f t="shared" si="5"/>
@@ -4247,7 +4247,7 @@
         <v>52</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C138" s="56" t="str">
         <f t="shared" si="5"/>
@@ -4262,7 +4262,7 @@
         <v>59</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C139" s="56" t="str">
         <f t="shared" si="5"/>
@@ -4277,7 +4277,7 @@
         <v>59</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C140" s="56" t="str">
         <f t="shared" si="5"/>
@@ -4292,7 +4292,7 @@
         <v>60</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C141" s="56" t="str">
         <f t="shared" ref="C141:C155" si="6">B141&amp;""&amp;A141</f>
@@ -4307,7 +4307,7 @@
         <v>60</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C142" s="56" t="str">
         <f t="shared" si="6"/>
@@ -4322,7 +4322,7 @@
         <v>61</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C143" s="56" t="str">
         <f t="shared" si="6"/>
@@ -4337,7 +4337,7 @@
         <v>61</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C144" s="56" t="str">
         <f t="shared" si="6"/>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>77</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>78</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>79</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>80</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>81</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C150" s="56" t="str">
         <f t="shared" si="6"/>
@@ -4439,10 +4439,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C151" s="56" t="str">
         <f t="shared" si="6"/>
@@ -4457,14 +4457,14 @@
         <v>0</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C152" s="56" t="str">
         <f t="shared" si="6"/>
         <v>Array_7Gantt</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4472,14 +4472,14 @@
         <v>0</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C153" s="56" t="str">
         <f t="shared" si="6"/>
         <v>Array_8Gantt</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4487,14 +4487,14 @@
         <v>0</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C154" s="56" t="str">
         <f t="shared" si="6"/>
         <v>Array_9Gantt</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4502,19 +4502,19 @@
         <v>0</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C155" s="56" t="str">
         <f t="shared" si="6"/>
         <v>Array_10Gantt</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>77</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>78</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>79</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>80</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>81</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C161" s="56" t="str">
         <f t="shared" si="7"/>
@@ -4604,10 +4604,10 @@
     </row>
     <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C162" s="56" t="str">
         <f t="shared" si="7"/>
@@ -4619,13 +4619,13 @@
     </row>
     <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C163" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D163" s="1">
         <v>10</v>
@@ -4633,13 +4633,13 @@
     </row>
     <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C164" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D164" s="1">
         <v>10</v>
@@ -4647,13 +4647,13 @@
     </row>
     <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C165" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D165" s="1">
         <v>40</v>
@@ -4661,13 +4661,13 @@
     </row>
     <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C166" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D166" s="1">
         <v>50</v>
@@ -4675,13 +4675,13 @@
     </row>
     <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C167" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D167" s="1">
         <v>80</v>
@@ -4689,13 +4689,13 @@
     </row>
     <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D168" s="1">
         <v>80</v>
@@ -4703,13 +4703,13 @@
     </row>
     <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C169" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D169" s="1">
         <v>100</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C170" s="56" t="str">
         <f t="shared" ref="C170:C173" si="8">B170&amp;""&amp;A170</f>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C171" s="56" t="str">
         <f t="shared" si="8"/>
@@ -4762,14 +4762,14 @@
         <v>0</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C172" s="56" t="str">
         <f t="shared" si="8"/>
         <v>Issue7Gantt</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>33</v>
@@ -4783,14 +4783,14 @@
         <v>0</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C173" s="56" t="str">
         <f t="shared" si="8"/>
         <v>Issue7Gantt</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E173" s="8" t="s">
         <v>29</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C175" s="56" t="str">
         <f t="shared" ref="C175:C184" si="9">B175&amp;""&amp;A174</f>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C176" s="56" t="str">
         <f t="shared" si="9"/>
@@ -4854,14 +4854,14 @@
         <v>0</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C177" s="56" t="str">
         <f t="shared" si="9"/>
         <v>Issue8Gantt</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>33</v>
@@ -4875,14 +4875,14 @@
         <v>0</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C178" s="56" t="str">
         <f t="shared" si="9"/>
         <v>Issue8Gantt</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>29</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C179" s="56" t="str">
         <f t="shared" si="9"/>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C180" s="56" t="str">
         <f t="shared" si="9"/>
@@ -4938,14 +4938,14 @@
         <v>0</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C181" s="56" t="str">
         <f t="shared" si="9"/>
         <v>Issue9Gantt</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>33</v>
@@ -4959,14 +4959,14 @@
         <v>0</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C182" s="56" t="str">
         <f t="shared" si="9"/>
         <v>Issue9Gantt</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>29</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C183" s="56" t="str">
         <f t="shared" si="9"/>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C184" s="56" t="str">
         <f t="shared" si="9"/>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C185" s="56" t="str">
         <f t="shared" ref="C185" si="10">B185&amp;""&amp;A184</f>
@@ -5043,14 +5043,14 @@
         <v>0</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C186" s="56" t="str">
         <f>B186&amp;""&amp;A184</f>
         <v>Issue10Gantt</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>33</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>77</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>78</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>79</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>80</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>81</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C192" s="56" t="str">
         <f t="shared" si="11"/>
@@ -5151,10 +5151,10 @@
     </row>
     <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C193" s="56" t="str">
         <f t="shared" si="11"/>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>77</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>78</v>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B196" s="10" t="s">
         <v>79</v>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>80</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>81</v>
@@ -5241,10 +5241,10 @@
     </row>
     <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C199" s="56" t="str">
         <f t="shared" si="11"/>
@@ -5256,10 +5256,10 @@
     </row>
     <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C200" s="56" t="str">
         <f t="shared" si="11"/>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>41</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>42</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>43</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B204" s="10" t="s">
         <v>44</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B205" s="10" t="s">
         <v>45</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B206" s="10" t="s">
         <v>41</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>42</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B208" s="10" t="s">
         <v>43</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>44</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B210" s="10" t="s">
         <v>45</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B211" s="10" t="s">
         <v>41</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B212" s="10" t="s">
         <v>42</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>43</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B214" s="10" t="s">
         <v>44</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B215" s="10" t="s">
         <v>41</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>42</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>43</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B218" s="10" t="s">
         <v>44</v>
@@ -5730,20 +5730,20 @@
         <v>0</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C220" s="56" t="str">
         <f t="shared" si="12"/>
         <v>Name_perc_Team_7Gantt</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E220" s="10">
         <v>31</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -5751,20 +5751,20 @@
         <v>0</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C221" s="56" t="str">
         <f t="shared" si="12"/>
         <v>Name_perc_Team_8Gantt</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E221" s="10">
         <v>43</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -5772,20 +5772,20 @@
         <v>0</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C222" s="56" t="str">
         <f t="shared" si="12"/>
         <v>Name_perc_Team_9Gantt</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E222" s="10">
         <v>21</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -5793,41 +5793,40 @@
         <v>0</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C223" s="56" t="str">
         <f t="shared" si="12"/>
         <v>Name_perc_Team_10Gantt</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E223" s="10">
         <v>56</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B224" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="B224" t="s">
         <v>40</v>
       </c>
-      <c r="C224" s="66" t="str">
+      <c r="C224" s="61" t="str">
         <f>B224&amp;""&amp;A224</f>
         <v>Amount_of_issuesGantt10</v>
       </c>
-      <c r="D224" s="67">
+      <c r="D224" s="1">
         <v>7</v>
       </c>
-      <c r="E224" s="65"/>
     </row>
     <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B225" s="10" t="s">
         <v>40</v>
@@ -5843,7 +5842,7 @@
     </row>
     <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B226" s="57" t="s">
         <v>40</v>
@@ -5858,7 +5857,7 @@
     </row>
     <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B227" s="57" t="s">
         <v>40</v>
@@ -5873,7 +5872,7 @@
     </row>
     <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B228" s="10" t="s">
         <v>45</v>
@@ -5897,10 +5896,10 @@
     </row>
     <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C229" s="56" t="str">
         <f t="shared" ref="C229" si="14">B229&amp;""&amp;A229</f>
@@ -5912,7 +5911,7 @@
     </row>
     <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B230" s="10" t="s">
         <v>46</v>
@@ -5936,7 +5935,7 @@
     </row>
     <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B231" s="10" t="s">
         <v>47</v>
@@ -5960,7 +5959,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>46</v>
@@ -5984,7 +5983,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B233" s="10" t="s">
         <v>47</v>
@@ -6072,10 +6071,10 @@
         <v>Array_oneGantt</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -6092,7 +6091,7 @@
         <v>Array_twoGantt</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -6110,7 +6109,7 @@
         <v>Array_threeGantt</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -6128,7 +6127,7 @@
         <v>Array_fourGantt</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -6146,7 +6145,7 @@
         <v>Array_fiveGantt</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -6159,10 +6158,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF34BF-D039-47E9-BB00-00A5A16BC9DE}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A2:T93"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6172,99 +6171,43 @@
     <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="38.21875" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>144</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B2" s="68" t="str">
         <f>OG!A2</f>
         <v>CORP_CLIENT</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>145</v>
       </c>
-      <c r="B2" t="str">
-        <f xml:space="preserve"> OG!A3</f>
+      <c r="B3" s="68" t="str">
+        <f>OG!A3</f>
         <v>Платформенные работы</v>
       </c>
-      <c r="C2">
-        <f>MONTH(OG!B3)</f>
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <f>MONTH(OG!C3)</f>
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <f>INDEX($M$5:$M$90,MATCH(B2,$L$5:$L$90,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>146</v>
       </c>
-      <c r="B3" t="str">
-        <f xml:space="preserve"> OG!A4</f>
+      <c r="B4" s="68" t="str">
+        <f>OG!A4</f>
         <v>Куча, маппинг, сегментация</v>
       </c>
-      <c r="C3">
-        <f>MONTH(OG!B4)</f>
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <f>MONTH(OG!C4)</f>
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">INDEX($M$5:$M$12,MATCH(B3,$L$5:$L$12,0))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>147</v>
       </c>
-      <c r="B4" t="str">
-        <f xml:space="preserve"> OG!A5</f>
+      <c r="B5" s="68" t="str">
+        <f>OG!A5</f>
         <v>Фриз основных атрибутов</v>
-      </c>
-      <c r="C4">
-        <f>MONTH(OG!B5)</f>
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <f>MONTH(OG!C5)</f>
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" t="str">
-        <f xml:space="preserve"> OG!A6</f>
-        <v>Подключение дополнительных источников</v>
-      </c>
-      <c r="C5">
-        <f>MONTH(OG!B6)</f>
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <f>MONTH(OG!C6)</f>
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>6</v>
       </c>
       <c r="L5" t="s">
         <v>92</v>
@@ -6272,26 +6215,17 @@
       <c r="M5" s="47">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" t="str">
-        <f xml:space="preserve"> OG!A7</f>
-        <v>Реализация распределения по ОУ</v>
-      </c>
-      <c r="C6">
-        <f>MONTH(OG!B7)</f>
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <f>MONTH(OG!C7)</f>
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <f>INDEX($M$5:$M$12,MATCH(B6,$L$5:$L$12,0))</f>
-        <v>4</v>
+        <v>148</v>
+      </c>
+      <c r="B6" s="68" t="str">
+        <f>OG!A6</f>
+        <v>Подключение дополнительных источников</v>
       </c>
       <c r="L6" t="s">
         <v>93</v>
@@ -6300,9 +6234,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="B7" s="68" t="str">
+        <f>OG!A7</f>
+        <v>Реализация распределения по ОУ</v>
       </c>
       <c r="L7" t="s">
         <v>96</v>
@@ -6311,257 +6249,164 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" t="str">
+        <v>150</v>
+      </c>
+      <c r="B8" s="68">
+        <f>OG!A8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="68" t="str">
         <f>OG!A9</f>
         <v>PL</v>
       </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="L9" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="38" t="str">
+      <c r="B10" s="68" t="str">
         <f>OG!A10</f>
         <v>Платформенные работы</v>
       </c>
-      <c r="C9">
-        <f>MONTH(OG!B10)</f>
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <f>MONTH(OG!C10)</f>
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <f>INDEX($M$5:$M$77,MATCH(B9,$L$5:$L$77,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="15">
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="48">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="38" t="str">
+      <c r="B11" s="68" t="str">
         <f>OG!A11</f>
         <v>Антифриз ДС_010 и DMPLACC из АХД</v>
       </c>
-      <c r="C10">
-        <f>MONTH(OG!B11)</f>
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <f>MONTH(OG!C11)</f>
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ref="E10:E22" si="1">INDEX($M$5:$M$77,MATCH(B10,$L$5:$L$77,0))</f>
+      <c r="L11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="15">
         <v>4</v>
       </c>
-      <c r="L10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="38" t="str">
+      <c r="B12" s="68" t="str">
+        <f>OG!A12</f>
+        <v>PL_ACC</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="68" t="str">
         <f>OG!A13</f>
         <v>Витрины комиссий</v>
       </c>
-      <c r="C11">
-        <f>MONTH(OG!B12)</f>
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f>MONTH(OG!C12)</f>
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="38" t="str">
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="68" t="str">
         <f>OG!A14</f>
         <v>Витрины Дебиторской задолженности</v>
       </c>
-      <c r="C12">
-        <f>MONTH(OG!B13)</f>
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <f>MONTH(OG!C13)</f>
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <f>INDEX($M$5:$M$77,MATCH(B12,$L$5:$L$77,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M12" s="49">
+      <c r="L14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="49">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="38" t="str">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="68" t="str">
         <f>OG!A15</f>
         <v>GL</v>
       </c>
-      <c r="C13">
-        <f>MONTH(OG!B14)</f>
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <f>MONTH(OG!C14)</f>
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <f>INDEX($M$5:$M$77,MATCH(B13,$L$5:$L$77,0))</f>
+      <c r="L15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="49">
         <v>3</v>
       </c>
-      <c r="L13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="38" t="str">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="68" t="str">
         <f>OG!A16</f>
         <v>Витрины ПП ЮЛ</v>
       </c>
-      <c r="C14">
-        <f>MONTH(OG!B15)</f>
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <f>MONTH(OG!C15)</f>
-        <v>9</v>
-      </c>
-      <c r="E14" t="e">
-        <f t="shared" ref="E14:E19" si="2">INDEX($M$5:$M$77,MATCH(B14,$L$5:$L$77,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M14" s="49">
+      <c r="L16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="49">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="L15" t="s">
-        <v>110</v>
-      </c>
-      <c r="M15" s="49">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="68" t="str">
+        <f>OG!A17</f>
+        <v>PL_AGR</v>
+      </c>
+      <c r="L17" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="49">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="str">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="68" t="str">
         <f>OG!A18</f>
         <v>Витрины (Д)</v>
       </c>
-      <c r="C16">
-        <f>MONTH(OG!B17)</f>
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f>MONTH(OG!C17)</f>
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L16" t="s">
-        <v>120</v>
-      </c>
-      <c r="M16" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="str">
+      <c r="L18" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="68" t="str">
         <f>OG!A19</f>
         <v>Витрины (М)</v>
       </c>
-      <c r="C17">
-        <f>MONTH(OG!B18)</f>
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <f>MONTH(OG!C18)</f>
-        <v>9</v>
-      </c>
-      <c r="E17" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E18" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E19" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
       <c r="L19" t="s">
         <v>127</v>
       </c>
@@ -6569,22 +6414,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E20" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="68" t="str">
+        <f>OG!A20</f>
+        <v>Кубы</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M20" s="48">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E21" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="68" t="str">
+        <f>OG!A21</f>
+        <v>Переключение антифриза ДС_010 и DMPLACC из АХД на GP</v>
       </c>
       <c r="L21" t="s">
         <v>134</v>
@@ -6593,10 +6438,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E22" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="68">
+        <f>OG!A22</f>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>133</v>
@@ -6604,8 +6449,15 @@
       <c r="M22" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q22" s="69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="68" t="str">
+        <f>OG!A23</f>
+        <v>Корп.карты</v>
+      </c>
       <c r="L23" t="s">
         <v>135</v>
       </c>
@@ -6613,7 +6465,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="68" t="str">
+        <f>OG!A24</f>
+        <v>Платформенные работы</v>
+      </c>
       <c r="L24" t="s">
         <v>140</v>
       </c>
@@ -6621,7 +6477,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="68" t="str">
+        <f>OG!A25</f>
+        <v>Фризование</v>
+      </c>
       <c r="L25" t="s">
         <v>138</v>
       </c>
@@ -6629,23 +6489,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="68" t="str">
+        <f>OG!A26</f>
+        <v>Витрины (Д)</v>
+      </c>
       <c r="L26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M26" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="68" t="str">
+        <f>OG!A27</f>
+        <v>Витрины (М)</v>
+      </c>
       <c r="L27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M27" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="68" t="str">
+        <f>OG!A28</f>
+        <v>Кубы</v>
+      </c>
       <c r="L28" t="s">
         <v>55</v>
       </c>
@@ -6653,7 +6525,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="68">
+        <f>OG!A29</f>
+        <v>0</v>
+      </c>
       <c r="L29" t="s">
         <v>104</v>
       </c>
@@ -6661,7 +6537,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="68" t="str">
+        <f>OG!A30</f>
+        <v>Драйверы</v>
+      </c>
       <c r="L30" t="s">
         <v>107</v>
       </c>
@@ -6669,7 +6549,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="68" t="str">
+        <f>OG!A31</f>
+        <v>Платформенные работы</v>
+      </c>
       <c r="L31" t="s">
         <v>95</v>
       </c>
@@ -6677,7 +6561,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="68" t="str">
+        <f>OG!A32</f>
+        <v>Загрузка и фризование источников из КАП802</v>
+      </c>
       <c r="L32" s="38" t="s">
         <v>101</v>
       </c>
@@ -6685,7 +6573,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="12:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="68" t="str">
+        <f>OG!A33</f>
+        <v>Витрины (Д)</v>
+      </c>
       <c r="L33" s="38" t="s">
         <v>106</v>
       </c>
@@ -6693,12 +6585,370 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="68" t="str">
+        <f>OG!A34</f>
+        <v>Витрины драйверов (М)</v>
+      </c>
       <c r="L34" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M34" s="47">
         <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="68">
+        <f>OG!A35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="68" t="str">
+        <f>OG!A36</f>
+        <v>Компетенциальный учет</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="68" t="str">
+        <f>OG!A37</f>
+        <v>Платформенные работы</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="68" t="str">
+        <f>OG!A38</f>
+        <v>Витрины</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="68">
+        <f>OG!A39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="68" t="str">
+        <f>OG!A40</f>
+        <v>НКД</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="68" t="str">
+        <f>OG!A41</f>
+        <v>Платформенные работы</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="68" t="str">
+        <f>OG!A42</f>
+        <v>Фризование основных источников</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="68" t="str">
+        <f>OG!A43</f>
+        <v>Загрузка и фризование дополнительных источников</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="68" t="str">
+        <f>OG!A44</f>
+        <v>Реализация корректировок</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="68" t="str">
+        <f>OG!A45</f>
+        <v>Инфосервисы</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="68" t="str">
+        <f>OG!A46</f>
+        <v>Кубы</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="68">
+        <f>OG!A47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="68" t="str">
+        <f>OG!A48</f>
+        <v>ПЮЛ</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="68" t="str">
+        <f>OG!A49</f>
+        <v>Платформенные работы</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="68" t="str">
+        <f>OG!A50</f>
+        <v>Антифриз НПЮЛ из АХД</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="68" t="str">
+        <f>OG!A51</f>
+        <v>Фризование</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="68" t="str">
+        <f>OG!A52</f>
+        <v>Слой расчетов</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="68" t="str">
+        <f>OG!A53</f>
+        <v>Витрины</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="68" t="str">
+        <f>OG!A54</f>
+        <v>Кубы</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="68">
+        <f>OG!A55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="68" t="str">
+        <f>OG!A56</f>
+        <v>Цессии ЮЛ</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="68" t="str">
+        <f>OG!A57</f>
+        <v>Платформенные работы</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="68" t="str">
+        <f>OG!A58</f>
+        <v>Фризование</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="68" t="str">
+        <f>OG!A59</f>
+        <v>Витрины</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="68" t="str">
+        <f>OG!A60</f>
+        <v>Инфосервисы</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="68">
+        <f>OG!A61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="68" t="str">
+        <f>OG!A62</f>
+        <v>Аккредитивы ЮЛ</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="68" t="str">
+        <f>OG!A63</f>
+        <v>Платформенные работы</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="68" t="str">
+        <f>OG!A64</f>
+        <v>Месячный тракт</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="68" t="str">
+        <f>OG!A65</f>
+        <v>Куб</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="68" t="str">
+        <f>OG!A66</f>
+        <v>Дневной тракт</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="68">
+        <f>OG!A67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="68" t="str">
+        <f>OG!A68</f>
+        <v>СЦП</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="68" t="str">
+        <f>OG!A69</f>
+        <v>Платформенные работы</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="68" t="str">
+        <f>OG!A70</f>
+        <v>Фризование</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="68" t="str">
+        <f>OG!A71</f>
+        <v>Корректировки</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="68" t="str">
+        <f>OG!A72</f>
+        <v>Инфосервисы</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="68" t="str">
+        <f>OG!A73</f>
+        <v>Кубы</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="68">
+        <f>OG!A74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="68" t="str">
+        <f>OG!A75</f>
+        <v>Корп клиенты ЮЛ (SFRCC)</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="68" t="str">
+        <f>OG!A76</f>
+        <v>Платформенные работы</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="68" t="str">
+        <f>OG!A77</f>
+        <v>Антифриз источников из ТД</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="68" t="str">
+        <f>OG!A78</f>
+        <v>Фризование</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="68" t="str">
+        <f>OG!A79</f>
+        <v>Инфоосервисы</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="68" t="str">
+        <f>OG!A80</f>
+        <v>Кубы</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="68" t="str">
+        <f>OG!A81</f>
+        <v>Переключение на загрузку источников из GP</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="68">
+        <f>OG!A82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="68" t="str">
+        <f>OG!A83</f>
+        <v>Продуктовое проникновение (MRKENT)</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="68" t="str">
+        <f>OG!A84</f>
+        <v>Платформенные работы</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="68" t="str">
+        <f>OG!A85</f>
+        <v>Расчет</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="68">
+        <f>OG!A86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="68" t="str">
+        <f>OG!A87</f>
+        <v>ДРПА ЮЛ (TACC)</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="68" t="str">
+        <f>OG!A88</f>
+        <v>Платформенные работы</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="68" t="str">
+        <f>OG!A89</f>
+        <v>Антифриз источников из ТД</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="68" t="str">
+        <f>OG!A90</f>
+        <v>Фризование</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="68" t="str">
+        <f>OG!A91</f>
+        <v>Инфоосервисы</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="68" t="str">
+        <f>OG!A92</f>
+        <v>Кубы</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="68" t="str">
+        <f>OG!A93</f>
+        <v>Переключение на загрузку источников из GP</v>
       </c>
     </row>
   </sheetData>
@@ -6713,7 +6963,7 @@
   <dimension ref="A1:X93"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6744,26 +6994,26 @@
         <v>86</v>
       </c>
       <c r="F1" s="24"/>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="62" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="62" t="s">
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="64"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="67"/>
     </row>
     <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
@@ -6811,7 +7061,7 @@
         <v>12</v>
       </c>
       <c r="W2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X2">
         <f>COUNT(G3:R3)</f>
@@ -6858,7 +7108,7 @@
         <v>8</v>
       </c>
       <c r="W3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X3" s="50">
         <f>MIN(U3:U7)</f>
@@ -6878,7 +7128,7 @@
       <c r="D4" s="40">
         <v>1</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="64" t="s">
         <v>94</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -6929,7 +7179,7 @@
         <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X4">
         <f>MAX(U3:U7)</f>
@@ -6949,7 +7199,7 @@
       <c r="D5" s="40">
         <v>0.6</v>
       </c>
-      <c r="E5" s="61"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="18" t="s">
         <v>97</v>
       </c>
@@ -6998,7 +7248,7 @@
         <v>5</v>
       </c>
       <c r="W5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X5">
         <f>X4-X3</f>
@@ -7067,7 +7317,7 @@
         <v>7</v>
       </c>
       <c r="W6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
